--- a/clases joel.xlsx
+++ b/clases joel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Iniciar Sesion</t>
   </si>
@@ -93,18 +93,12 @@
     <t>dar baja usuario</t>
   </si>
   <si>
-    <t>eliminar usuario</t>
-  </si>
-  <si>
     <t>verificar tamaño maximo</t>
   </si>
   <si>
     <t>gestion muro no va</t>
   </si>
   <si>
-    <t>fotografiar con camara integrada</t>
-  </si>
-  <si>
     <t>DESCRIPCION</t>
   </si>
   <si>
@@ -124,6 +118,18 @@
   </si>
   <si>
     <t>LOS DEMAS BRILLAN POR SU CLARIDAD</t>
+  </si>
+  <si>
+    <t>seleccionar comentario</t>
+  </si>
+  <si>
+    <t>verificar parametros</t>
+  </si>
+  <si>
+    <t>verificar existencia comentario</t>
+  </si>
+  <si>
+    <t>verificar existencia usuario</t>
   </si>
 </sst>
 </file>
@@ -257,16 +263,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,448 +591,501 @@
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="5"/>
+      <c r="M3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="5" t="s">
+      <c r="N3" s="5"/>
+      <c r="O3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="L4" s="5"/>
       <c r="M4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="N4" s="5"/>
       <c r="O4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="P4" s="5"/>
       <c r="Q4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="4"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="4"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="4"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="4"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="4"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="4"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="4"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="4"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="4"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="4"/>
+      <c r="P7" s="5"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="4"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="4"/>
+      <c r="N8" s="5"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="4"/>
+      <c r="P8" s="5"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="5"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="4"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="4"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="4"/>
+      <c r="P9" s="5"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="4"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="N10" s="5"/>
       <c r="O10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="P10" s="5"/>
       <c r="Q10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R10" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="4"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="4"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="4"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="4"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="4"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="4"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="4"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="4"/>
+      <c r="R12" s="5"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="4"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="4"/>
+      <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="4"/>
+      <c r="R13" s="5"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="4"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="4"/>
+      <c r="N14" s="5"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="4"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="4"/>
+      <c r="R14" s="5"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="4"/>
+      <c r="N15" s="5"/>
       <c r="O15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="4"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="4"/>
+      <c r="R15" s="5"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="4"/>
+      <c r="N16" s="5"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="4"/>
+      <c r="P16" s="5"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="5"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="4"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="5"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="4"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="5"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="O4:P4"/>
@@ -1051,87 +1110,32 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
